--- a/i-oic-cost-inflation-analysis-agent/knowledge-bases/streaming_cost_inflation.xlsx
+++ b/i-oic-cost-inflation-analysis-agent/knowledge-bases/streaming_cost_inflation.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eladixit26/Code/OIC/oic-public-ibm/oic-i-agentic-ai-tutorials/i-oic-cost-inflation-analysis-agent/knowledge-bases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7AA23-4045-6142-8BB0-2873D9AD3B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>service</t>
   </si>
@@ -172,9 +178,6 @@
     <t>Ótimo para evitar anúncios!</t>
   </si>
   <si>
-    <t>Big jump but still using it</t>
-  </si>
-  <si>
     <t>Another increase, considering ad blocker</t>
   </si>
   <si>
@@ -200,13 +203,22 @@
   </si>
   <si>
     <t>Positive</t>
+  </si>
+  <si>
+    <t>positivo</t>
+  </si>
+  <si>
+    <t>Grande salto, mas ainda estou usando.</t>
+  </si>
+  <si>
+    <t>neutro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,13 +281,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +333,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +402,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +578,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -621,13 +648,13 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -653,13 +680,13 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -685,13 +712,13 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -705,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>17.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F5">
         <v>15.49</v>
@@ -717,13 +744,13 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5">
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -749,13 +776,13 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -775,19 +802,19 @@
         <v>7.99</v>
       </c>
       <c r="G7">
-        <v>37.55</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -813,13 +840,13 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -845,13 +872,13 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -877,13 +904,13 @@
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -909,13 +936,13 @@
         <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -941,13 +968,13 @@
         <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -973,13 +1000,13 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1005,13 +1032,13 @@
         <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1037,13 +1064,13 @@
         <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1069,13 +1096,13 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16">
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1101,13 +1128,13 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1133,13 +1160,13 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1165,13 +1192,13 @@
         <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1197,13 +1224,13 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1229,13 +1256,13 @@
         <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1290,16 +1317,16 @@
         <v>23.92</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1322,16 +1349,16 @@
         <v>11.58</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1354,16 +1381,16 @@
         <v>20.76</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1386,16 +1413,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1418,16 +1445,16 @@
         <v>11.12</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1450,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1482,10 +1509,10 @@
         <v>10.01</v>
       </c>
       <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
         <v>58</v>
-      </c>
-      <c r="I29" t="s">
-        <v>59</v>
       </c>
       <c r="J29">
         <v>0</v>
